--- a/service/학습 데이터셋.xlsx
+++ b/service/학습 데이터셋.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdhg\Desktop\greensteel-main\service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE12FDE9-30B4-468D-94D9-A3B8BC46AC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB746D85-D31B-4456-85AF-F80F179E9BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="2115" windowWidth="22065" windowHeight="10440" xr2:uid="{AC2A805E-2818-429D-9FBB-D042F27A31B6}"/>
+    <workbookView xWindow="-24495" yWindow="1335" windowWidth="27090" windowHeight="11475" xr2:uid="{AC2A805E-2818-429D-9FBB-D042F27A31B6}"/>
   </bookViews>
   <sheets>
     <sheet name="학습 데이터 셋" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="726">
   <si>
     <t>Label</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1864,9 +1864,6 @@
     <t>냉값수</t>
   </si>
   <si>
-    <t>냉각슈</t>
-  </si>
-  <si>
     <t>Light Naphtha</t>
   </si>
   <si>
@@ -2223,6 +2220,14 @@
   </si>
   <si>
     <t>환ㅇ웣널</t>
+  </si>
+  <si>
+    <t>물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2654,8 +2659,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D55" workbookViewId="0">
-      <selection activeCell="K67" sqref="K67"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2787,7 +2792,7 @@
         <v>91</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>92</v>
@@ -2847,7 +2852,7 @@
         <v>107</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>109</v>
@@ -3199,7 +3204,7 @@
         <v>267</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>268</v>
@@ -3447,7 +3452,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>326</v>
@@ -3509,7 +3514,9 @@
       <c r="J25" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="K25" s="1"/>
+      <c r="K25" s="1" t="s">
+        <v>725</v>
+      </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="2" t="s">
@@ -3682,7 +3689,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>244</v>
@@ -3717,7 +3724,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>397</v>
@@ -3752,7 +3759,7 @@
     </row>
     <row r="33" spans="1:11" ht="33">
       <c r="A33" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>391</v>
@@ -4043,7 +4050,7 @@
         <v>130</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>131</v>
@@ -4488,10 +4495,10 @@
         <v>597</v>
       </c>
       <c r="F54" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>721</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>722</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>598</v>
@@ -4535,15 +4542,15 @@
         <v>609</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>610</v>
+        <v>724</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>473</v>
@@ -4582,101 +4589,101 @@
         <v>39</v>
       </c>
       <c r="C57" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="F57" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="G57" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="H57" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="I57" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="I57" s="2" t="s">
+      <c r="J57" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="J57" s="2" t="s">
+      <c r="K57" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="F58" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="G58" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="H58" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="I58" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="I58" s="2" t="s">
+      <c r="J58" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="J58" s="2" t="s">
+      <c r="K58" s="2" t="s">
         <v>629</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="F59" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="G59" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="H59" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="I59" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="J59" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="J59" s="2" t="s">
+      <c r="K59" s="2" t="s">
         <v>640</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -4684,51 +4691,51 @@
         <v>16</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="F60" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="G60" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="H60" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="I60" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="J60" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="J60" s="2" t="s">
+      <c r="K60" s="2" t="s">
         <v>650</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="C61" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>654</v>
-      </c>
       <c r="E61" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>207</v>
@@ -4737,13 +4744,13 @@
         <v>440</v>
       </c>
       <c r="H61" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="I61" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="J61" s="2" t="s">
         <v>656</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>657</v>
       </c>
       <c r="K61" s="1"/>
     </row>
@@ -4820,7 +4827,7 @@
         <v>204</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>205</v>
@@ -4883,40 +4890,40 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="C66" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="E66" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="F66" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="G66" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="H66" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="I66" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="I66" s="2" t="s">
+      <c r="J66" s="2" t="s">
         <v>666</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>667</v>
       </c>
       <c r="K66" s="2"/>
     </row>
     <row r="67" spans="1:11" s="5" customFormat="1" ht="18.75" thickBot="1">
       <c r="A67" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>73</v>
@@ -4946,12 +4953,12 @@
         <v>235</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="68" spans="1:11" s="5" customFormat="1">
       <c r="A68" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>364</v>
@@ -4960,10 +4967,10 @@
         <v>366</v>
       </c>
       <c r="D68" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="E68" s="4" t="s">
         <v>685</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>686</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>367</v>
@@ -4972,13 +4979,13 @@
         <v>368</v>
       </c>
       <c r="H68" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="I68" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="I68" s="4" t="s">
+      <c r="J68" s="4" t="s">
         <v>688</v>
-      </c>
-      <c r="J68" s="4" t="s">
-        <v>689</v>
       </c>
       <c r="K68" s="3"/>
     </row>
@@ -4993,28 +5000,28 @@
         <v>419</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="F69" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="G69" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="H69" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="I69" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="J69" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="J69" s="2" t="s">
+      <c r="K69" s="2" t="s">
         <v>674</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -5022,34 +5029,34 @@
         <v>29</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>677</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>678</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>186</v>
       </c>
       <c r="F70" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="H70" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="H70" s="2" t="s">
+      <c r="I70" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="I70" s="2" t="s">
+      <c r="J70" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="J70" s="2" t="s">
+      <c r="K70" s="2" t="s">
         <v>683</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="33">
@@ -5057,31 +5064,31 @@
         <v>45</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="F71" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="G71" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="H71" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="H71" s="2" t="s">
+      <c r="I71" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="I71" s="2" t="s">
+      <c r="J71" s="2" t="s">
         <v>697</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>698</v>
       </c>
       <c r="K71" s="1"/>
     </row>
@@ -5090,31 +5097,31 @@
         <v>46</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="E72" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="F72" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="G72" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="G72" s="2" t="s">
+      <c r="H72" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="H72" s="2" t="s">
+      <c r="I72" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="I72" s="2" t="s">
+      <c r="J72" s="2" t="s">
         <v>706</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>707</v>
       </c>
       <c r="K72" s="1"/>
     </row>
